--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Epha4</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H2">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I2">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J2">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N2">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O2">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P2">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q2">
-        <v>2.31608189509875</v>
+        <v>2.11052209272975</v>
       </c>
       <c r="R2">
-        <v>9.264327580394999</v>
+        <v>8.442088370919</v>
       </c>
       <c r="S2">
-        <v>0.1040375456523518</v>
+        <v>0.127367296309152</v>
       </c>
       <c r="T2">
-        <v>0.07602278007821889</v>
+        <v>0.1007037011022252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H3">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I3">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J3">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P3">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q3">
-        <v>0.46281568963</v>
+        <v>0.6352564346940001</v>
       </c>
       <c r="R3">
-        <v>2.77689413778</v>
+        <v>3.811538608164</v>
       </c>
       <c r="S3">
-        <v>0.02078951031066751</v>
+        <v>0.03833690953943818</v>
       </c>
       <c r="T3">
-        <v>0.02278710575645937</v>
+        <v>0.04546695413167708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H4">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I4">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J4">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N4">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O4">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P4">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q4">
-        <v>0.36780768198125</v>
+        <v>0.023560393461</v>
       </c>
       <c r="R4">
-        <v>1.471230727925</v>
+        <v>0.141362360766</v>
       </c>
       <c r="S4">
-        <v>0.01652178560109959</v>
+        <v>0.001421839470643081</v>
       </c>
       <c r="T4">
-        <v>0.01207287297461813</v>
+        <v>0.001686278596031149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,46 +729,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H5">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I5">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J5">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N5">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O5">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P5">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q5">
-        <v>1.358123549504167</v>
+        <v>0.58775818490325</v>
       </c>
       <c r="R5">
-        <v>8.148741297025001</v>
+        <v>2.351032739613</v>
       </c>
       <c r="S5">
-        <v>0.06100640961016167</v>
+        <v>0.0354704511990567</v>
       </c>
       <c r="T5">
-        <v>0.06686831420436655</v>
+        <v>0.02804492062735418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H6">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I6">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J6">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N6">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O6">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P6">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q6">
-        <v>0.005920451845</v>
+        <v>0.0028300818725</v>
       </c>
       <c r="R6">
-        <v>0.03552271107</v>
+        <v>0.016980491235</v>
       </c>
       <c r="S6">
-        <v>0.0002659445162151643</v>
+        <v>0.0001707918043954936</v>
       </c>
       <c r="T6">
-        <v>0.000291498247230759</v>
+        <v>0.000202556315305693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -859,10 +859,10 @@
         <v>0.662143</v>
       </c>
       <c r="I7">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J7">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N7">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O7">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P7">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q7">
-        <v>2.3003632459455</v>
+        <v>1.5271841619895</v>
       </c>
       <c r="R7">
-        <v>13.802179475673</v>
+        <v>9.163104971937001</v>
       </c>
       <c r="S7">
-        <v>0.1033314697219906</v>
+        <v>0.09216360176887657</v>
       </c>
       <c r="T7">
-        <v>0.1132602496806851</v>
+        <v>0.1093045397914741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -921,10 +921,10 @@
         <v>0.662143</v>
       </c>
       <c r="I8">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J8">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P8">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q8">
         <v>0.4596746791746667</v>
@@ -951,10 +951,10 @@
         <v>4.137072112572</v>
       </c>
       <c r="S8">
-        <v>0.02064841727793287</v>
+        <v>0.02774077621359025</v>
       </c>
       <c r="T8">
-        <v>0.0339486833396692</v>
+        <v>0.04935016729959307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,40 +983,40 @@
         <v>0.662143</v>
       </c>
       <c r="I9">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J9">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N9">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O9">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P9">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q9">
-        <v>0.3653114663158334</v>
+        <v>0.01704841653533333</v>
       </c>
       <c r="R9">
-        <v>2.191868797895</v>
+        <v>0.153435748818</v>
       </c>
       <c r="S9">
-        <v>0.01640965651283269</v>
+        <v>0.001028850030965155</v>
       </c>
       <c r="T9">
-        <v>0.01798640625956546</v>
+        <v>0.001830299223186397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,40 +1045,40 @@
         <v>0.662143</v>
       </c>
       <c r="I10">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J10">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N10">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O10">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P10">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q10">
-        <v>1.348906316026111</v>
+        <v>0.4253047121165001</v>
       </c>
       <c r="R10">
-        <v>12.140156844235</v>
+        <v>2.551828272699</v>
       </c>
       <c r="S10">
-        <v>0.06059237487728332</v>
+        <v>0.02566659286648712</v>
       </c>
       <c r="T10">
-        <v>0.09962174436031877</v>
+        <v>0.03044016365942318</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1107,10 +1107,10 @@
         <v>0.662143</v>
       </c>
       <c r="I11">
-        <v>0.2012460580095654</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J11">
-        <v>0.2652513635261999</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N11">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O11">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P11">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q11">
-        <v>0.005880271268666666</v>
+        <v>0.002047861156111111</v>
       </c>
       <c r="R11">
-        <v>0.052922441418</v>
+        <v>0.018430750405</v>
       </c>
       <c r="S11">
-        <v>0.0002641396195258619</v>
+        <v>0.0001235857893025172</v>
       </c>
       <c r="T11">
-        <v>0.0004342798859614046</v>
+        <v>0.0002198561183354193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H12">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I12">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J12">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N12">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O12">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P12">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q12">
-        <v>0.85560590418</v>
+        <v>0.4820500577795</v>
       </c>
       <c r="R12">
-        <v>5.13363542508</v>
+        <v>2.892300346677</v>
       </c>
       <c r="S12">
-        <v>0.03843350207301421</v>
+        <v>0.02909110156038878</v>
       </c>
       <c r="T12">
-        <v>0.04212645046668036</v>
+        <v>0.03450157553585474</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H13">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I13">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J13">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>6.248004</v>
       </c>
       <c r="O13">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P13">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q13">
-        <v>0.1709731583466667</v>
+        <v>0.1450946200013333</v>
       </c>
       <c r="R13">
-        <v>1.53875842512</v>
+        <v>1.305851580012</v>
       </c>
       <c r="S13">
-        <v>0.007680051298902667</v>
+        <v>0.008756273872817508</v>
       </c>
       <c r="T13">
-        <v>0.01262700312907292</v>
+        <v>0.01557719860531162</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,46 +1287,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H14">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I14">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J14">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N14">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O14">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P14">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q14">
-        <v>0.1358753440333333</v>
+        <v>0.005381269908666666</v>
       </c>
       <c r="R14">
-        <v>0.8152520642000002</v>
+        <v>0.04843142917799999</v>
       </c>
       <c r="S14">
-        <v>0.006103470407420203</v>
+        <v>0.0003247527241423836</v>
       </c>
       <c r="T14">
-        <v>0.006689932739009222</v>
+        <v>0.0005777272108043528</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,46 +1349,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H15">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I15">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J15">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N15">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O15">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P15">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q15">
-        <v>0.5017173745111112</v>
+        <v>0.1342458664465</v>
       </c>
       <c r="R15">
-        <v>4.515456370600001</v>
+        <v>0.8054751986790001</v>
       </c>
       <c r="S15">
-        <v>0.02253695966698634</v>
+        <v>0.008101565536257887</v>
       </c>
       <c r="T15">
-        <v>0.03705369263294985</v>
+        <v>0.009608325581196843</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08209333333333334</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H16">
-        <v>0.24628</v>
+        <v>0.209003</v>
       </c>
       <c r="I16">
-        <v>0.07485222854669725</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J16">
-        <v>0.09865860668954067</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N16">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O16">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P16">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q16">
-        <v>0.002187130586666667</v>
+        <v>0.0006463998338888889</v>
       </c>
       <c r="R16">
-        <v>0.01968417528</v>
+        <v>0.005817598504999999</v>
       </c>
       <c r="S16">
-        <v>9.824510037383052E-05</v>
+        <v>3.900939936176022E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001615277218283282</v>
+        <v>6.939677426244425E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H17">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I17">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J17">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N17">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O17">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P17">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q17">
-        <v>5.95854922937175</v>
+        <v>5.146269482360999</v>
       </c>
       <c r="R17">
-        <v>23.834196917487</v>
+        <v>20.585077929444</v>
       </c>
       <c r="S17">
-        <v>0.2676558366888482</v>
+        <v>0.3105707503866209</v>
       </c>
       <c r="T17">
-        <v>0.1955826685612321</v>
+        <v>0.2455545883781213</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H18">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I18">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J18">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>6.248004</v>
       </c>
       <c r="O18">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P18">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q18">
-        <v>1.190678998278</v>
+        <v>1.549000986344</v>
       </c>
       <c r="R18">
-        <v>7.144073989668</v>
+        <v>9.294005918063998</v>
       </c>
       <c r="S18">
-        <v>0.05348486204343059</v>
+        <v>0.09348021908440074</v>
       </c>
       <c r="T18">
-        <v>0.05862404595109293</v>
+        <v>0.1108660266148271</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H19">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I19">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J19">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N19">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O19">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P19">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q19">
-        <v>0.94625331887625</v>
+        <v>0.05744935543599999</v>
       </c>
       <c r="R19">
-        <v>3.785013275505</v>
+        <v>0.344696132616</v>
       </c>
       <c r="S19">
-        <v>0.04250535055327992</v>
+        <v>0.003466994779060936</v>
       </c>
       <c r="T19">
-        <v>0.03105969962091808</v>
+        <v>0.004111799685683208</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H20">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I20">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J20">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N20">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O20">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P20">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q20">
-        <v>3.4940241303275</v>
+        <v>1.433181874947</v>
       </c>
       <c r="R20">
-        <v>20.964144781965</v>
+        <v>5.732727499788</v>
       </c>
       <c r="S20">
-        <v>0.1569502769909038</v>
+        <v>0.08649068453729507</v>
       </c>
       <c r="T20">
-        <v>0.1720311112119929</v>
+        <v>0.0683843678571102</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5717085</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H21">
-        <v>1.143417</v>
+        <v>1.487516</v>
       </c>
       <c r="I21">
-        <v>0.5212805177532418</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J21">
-        <v>0.4580474585233657</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N21">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O21">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P21">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q21">
-        <v>0.015231457857</v>
+        <v>0.006900834643333333</v>
       </c>
       <c r="R21">
-        <v>0.09138874714199999</v>
+        <v>0.04140500786</v>
       </c>
       <c r="S21">
-        <v>0.0006841914767793416</v>
+        <v>0.0004164565032631693</v>
       </c>
       <c r="T21">
-        <v>0.0007499331781296962</v>
+        <v>0.0004939106714438263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.165128</v>
+      </c>
+      <c r="H22">
+        <v>0.495384</v>
+      </c>
+      <c r="I22">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J22">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.9192795</v>
+      </c>
+      <c r="N22">
+        <v>13.838559</v>
+      </c>
+      <c r="O22">
+        <v>0.6281451873364243</v>
+      </c>
+      <c r="P22">
+        <v>0.5718408792853329</v>
+      </c>
+      <c r="Q22">
+        <v>1.142566785276</v>
+      </c>
+      <c r="R22">
+        <v>6.855400711656</v>
+      </c>
+      <c r="S22">
+        <v>0.06895243731138613</v>
+      </c>
+      <c r="T22">
+        <v>0.08177647447765755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.165128</v>
+      </c>
+      <c r="H23">
+        <v>0.495384</v>
+      </c>
+      <c r="I23">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J23">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.082668</v>
+      </c>
+      <c r="N23">
+        <v>6.248004</v>
+      </c>
+      <c r="O23">
+        <v>0.1890685122662809</v>
+      </c>
+      <c r="P23">
+        <v>0.2581818021036928</v>
+      </c>
+      <c r="Q23">
+        <v>0.343906801504</v>
+      </c>
+      <c r="R23">
+        <v>3.095161213536</v>
+      </c>
+      <c r="S23">
+        <v>0.02075433355603426</v>
+      </c>
+      <c r="T23">
+        <v>0.03692145545228389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.165128</v>
+      </c>
+      <c r="H24">
+        <v>0.495384</v>
+      </c>
+      <c r="I24">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J24">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.07724199999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.231726</v>
+      </c>
+      <c r="O24">
+        <v>0.007012173819577614</v>
+      </c>
+      <c r="P24">
+        <v>0.009575447818900294</v>
+      </c>
+      <c r="Q24">
+        <v>0.012754816976</v>
+      </c>
+      <c r="R24">
+        <v>0.114793352784</v>
+      </c>
+      <c r="S24">
+        <v>0.0007697368147660587</v>
+      </c>
+      <c r="T24">
+        <v>0.001369343103195186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.165128</v>
+      </c>
+      <c r="H25">
+        <v>0.495384</v>
+      </c>
+      <c r="I25">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J25">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.9269465</v>
+      </c>
+      <c r="N25">
+        <v>3.853893</v>
+      </c>
+      <c r="O25">
+        <v>0.1749318220531151</v>
+      </c>
+      <c r="P25">
+        <v>0.1592516649884999</v>
+      </c>
+      <c r="Q25">
+        <v>0.318192821652</v>
+      </c>
+      <c r="R25">
+        <v>1.909156929912</v>
+      </c>
+      <c r="S25">
+        <v>0.01920252791401835</v>
+      </c>
+      <c r="T25">
+        <v>0.02277388726341544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.165128</v>
+      </c>
+      <c r="H26">
+        <v>0.495384</v>
+      </c>
+      <c r="I26">
+        <v>0.1097714966244839</v>
+      </c>
+      <c r="J26">
+        <v>0.1430056462207791</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009278333333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.027835</v>
+      </c>
+      <c r="O26">
+        <v>0.0008423045246020856</v>
+      </c>
+      <c r="P26">
+        <v>0.001150205803574436</v>
+      </c>
+      <c r="Q26">
+        <v>0.001532112626666667</v>
+      </c>
+      <c r="R26">
+        <v>0.01378901364</v>
+      </c>
+      <c r="S26">
+        <v>9.246102827914539E-05</v>
+      </c>
+      <c r="T26">
+        <v>0.0001644859242270526</v>
       </c>
     </row>
   </sheetData>
